--- a/Youth Facility Counts/COVID-19_Youth_Correctional_Facilities.xlsx
+++ b/Youth Facility Counts/COVID-19_Youth_Correctional_Facilities.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,14 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -450,374 +443,396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alaska</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Anchorage</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Juvenile Detention</t>
+          <t>Systemwide</t>
         </is>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>43928</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Suspended, Adapted</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Educational Packets</t>
+        </is>
+      </c>
+      <c r="L2">
+        <v>43941</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.adn.com/alaska-news/2020/04/06/anchorage-juvenile-justice-center-staff-member-among-14-new-covid-19-cases/</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>perma.cc/UN69-ACG7</t>
+          <t>https://dys.alabama.gov/wp-content/uploads/2020/04/DYS-COVID-19-Update-4-20-20-002.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Anchorage</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>McLaughlin Youth Facility</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Resumed</t>
+        </is>
+      </c>
+      <c r="L3">
+        <v>44018</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.adn.com/alaska-news/2020/04/06/anchorage-juvenile-justice-center-staff-member-among-14-new-covid-19-cases/
+http://dhss.alaska.gov/djj/Pages/COVID-19.aspx</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>perma.cc/UN69-ACG7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yavapai County</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mingus Mountain Academy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>92</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L4">
+        <v>44021</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://patch.com/arizona/across-az/covid-19-outbreaks-arizona-child-detention-centers-worry-advocates</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Queen Creek</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>44021</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://patch.com/arizona/across-az/covid-19-outbreaks-arizona-child-detention-centers-worry-advocates</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>California</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Alameda</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F3">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Educational packets</t>
         </is>
       </c>
-      <c r="L3" s="2">
+      <c r="L6">
         <v>44019</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Chief Probation Officer 
 Wendy Still</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Alameda</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Juvenile Camp</t>
         </is>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="L4" s="2">
+      <c r="L7">
         <v>43923</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Chief Probation 
 Officer Wendy Still</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>https://perma.cc/HG26-UFHX</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>San Francisco</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="L5" s="2">
+      <c r="L8">
         <v>43910</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://sfpublicpress.org/news/2020-03/sfs-jailed-</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>https://perma.cc/AQ3G-A9G5; https://perma.cc/R9ZH-Q66T; https://perma.cc/DFZ5-PEHZ https://perma.cc/QXN6-LSP2</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Systemwide</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>39</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L9">
         <v>44001</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://www.latimes.com/california/story/2020-06-19/thirteen-test-positive-for-covid-19-at-l-a-county-juvenile-camp</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>perma.cc/YL67-4FFG</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Dorothy Kirby Center - 7 youth; 6 adults (6/15)
 LA County Juvenile Camp - 13 youth (6/19)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>San Bernadino</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>43916</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>https://www.dailynews.com/2020/03/26/southern-california-juvenile-halls-release-low-level-offenders-early-in-response-to-</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>perma.cc/FS2H-Q9PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Juvenile Prison</t>
-        </is>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>44019</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>https://www.cdcr.ca.gov/juvenile-justice/</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>perma.cc/3UAL-6K4L</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Juvenile Prison</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>43923</v>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>California</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hartford</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
+          <t>Stockton</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N.A. Chaderjian
+ Youth Correctional Facility</t>
         </is>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L10" s="2">
-        <v>43915</v>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>44018</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://ctmirror.org/2020/03/25/hartford-juvenile-detention-center-employee-second-doc-staffer-test-positive-for-covid-19/</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>perma.cc/NU2Y-WWZU</t>
+          <t>https://chronicleofsocialchange.org/justice/juvenile-justice-2/coronaviruss-arrival-in-california-juvenile-lockup-sparks-concern/44994</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Connecticut</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Manson Youth Institute</t>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>San Bernadino</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
         </is>
       </c>
       <c r="F11">
@@ -826,39 +841,24 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L11" s="2">
-        <v>44011</v>
+      <c r="L11">
+        <v>43916</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://www.courant.com/coronavirus/hc-news-coronavirus-doc-mass-testing-numbers-20200629-fdgou7ywpneknewyl32d4e3bxe-story.html</t>
+          <t>https://www.dailynews.com/2020/03/26/southern-california-juvenile-halls-release-low-level-offenders-early-in-response-to-</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>perma.cc/M2RW-6P6M</t>
+          <t>perma.cc/FS2H-Q9PJ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Delaware</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Ferris School</t>
+          <t>California</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,151 +867,96 @@
         </is>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="L12" s="2">
-        <v>43921</v>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>44025</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://kids.delaware.gov/news/pr/pr-20200330-dscyf-announces-positive-coronavirus-test-result-at-secure-facility.pdf</t>
+          <t>https://www.cdcr.ca.gov/juvenile-justice/</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>perma.cc/UP8H-786H</t>
+          <t>perma.cc/3UAL-6K4L</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Delaware</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Stevenson House Juvenile Detention</t>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Orange</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Juvenile Detention</t>
+          <t>Juvenile Prison</t>
         </is>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="L13" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://kids.delaware.gov/news/pr/pr-20200331-dscyf-positive-coronavirus-test-result-stevenson-house.pdf</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>perma.cc/7MBT-5ALJ</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>43923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Florida</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Statewide</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Statewide</t>
-        </is>
-      </c>
       <c r="F14">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>93</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Resumed, Limited</t>
-        </is>
-      </c>
-      <c r="L14" s="2">
-        <v>44012</v>
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>44022</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://www.news4jax.com/news/florida/2020/06/30/covid-19-cases-increase-in-juvenile-justice-system/</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>perma.cc/HTD5-P2PQ</t>
+          <t>https://docs.google.com/document/d/1kIFHwzDP7hiFlF_fkFkx9ptof6l3FRkhDRqsWnfSFBk/edit</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Cases at specific facilities - Broward: 12 staff (6/02) https://miami.cbslocal.com/2020/06/02/juvenile-justice-system-sees-more-covid-19-cases/Okeechobee Youth Development Center: 16 youth, 5 staff (6/02)https://miami.cbslocal.com/2020/06/02/juvenile-justice-system-sees-more-covid-19-cases/Oak Grove Academy: 9 youth (6/02)https://miami.cbslocal.com/2020/06/02/juvenile-justice-system-sees-more-covid-19-cases/Volusia Regional Detention Center: 7 youth (6/02)https://miami.cbslocal.com/2020/06/02/juvenile-justice-system-sees-more-covid-19-cases/Escambia Boys Base: 3 youth, 4 staff (6/27)https://www.pnj.com/story/news/2020/06/27/seven-people-test-positive-covd-19-escambia-boys-base/3266760001/
-  Palm Beach Youth Academy - 21 youth; 11 workers (6/29)
- Palm Beach Academy Substance Abuse - 10 (6/29)
- Okeechobee Youth Detention Center - 16 (6/29)
- Oak Grove Academy 9 (6/29)</t>
+          <t>Employees with COVID locations: 
+ - Platte Valley YSC: 1
+- Marvin Fotte YSC: 1
+- The Campus at Lookout Mountain: 5
+- Gilliam YSC: 1
+- Mount View YSC: 3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Midland</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Muscogee, Harris</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Aaron Cohn Regional 
-Youth Detention Center</t>
+          <t>Hartford</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1020,2961 +965,4578 @@
         </is>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="L15" s="2">
-        <v>44020</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L15">
+        <v>43915</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
+          <t>https://ctmirror.org/2020/03/25/hartford-juvenile-detention-center-employee-second-doc-staffer-test-positive-for-covid-19/</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>perma.cc/NU2Y-WWZU</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Manson Youth Institute</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L16">
+        <v>44011</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://www.courant.com/coronavirus/hc-news-coronavirus-doc-mass-testing-numbers-20200629-fdgou7ywpneknewyl32d4e3bxe-story.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ferris School</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Suspended</t>
+        </is>
+      </c>
+      <c r="L17">
+        <v>43921</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://kids.delaware.gov/news/pr/pr-20200330-dscyf-announces-positive-coronavirus-test-result-at-secure-facility.pdf</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>perma.cc/UP8H-786H</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Stevenson House 
+Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Suspended</t>
+        </is>
+      </c>
+      <c r="L18">
+        <v>43921</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://kids.delaware.gov/news/pr/pr-20200331-dscyf-positive-coronavirus-test-result-stevenson-house.pdf</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>perma.cc/7MBT-5ALJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Boward Regional 
+Juvenile Detention Center</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>44021</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Palm Beach Regional
+Juvenile Detention Center</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>44021</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Miami-Dade Regional Juvenile
+ Detention Center</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="L21">
+        <v>44021</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Collier Regional Juvenile
+ Detention Center</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>44021</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Manatee Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>44021</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Orange Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>44021</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Pinellas Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>44021</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Volusia Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>44021</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>St. Lucie Regional Juvenile
+ Detention Center</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>44021</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Leon Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>44021</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Brevard Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>44021</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SWFL Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>44021</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Duval Regional Juvenile 
+Detention Center</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>44021</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Broward Youth 
+Treatment Center</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>44021</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Columbus Youth Academy</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>44021</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Crestview Youth Academy</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>44021</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Miami Youth Academy</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>44021</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Miami Girls Academy</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>44021</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Dove Academy</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>44021</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daytona Juvenile 
+Residential Facility
+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>44021</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Palm Beach Youth Academy</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="L39">
+        <v>44021</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Palm Beach Youth Academy
+ Substance Abuse</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>44021</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Okeechobee Youth 
+Development Center</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>44021</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Okeechobee Youth 
+Treatment Center</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>44021</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Okeechobee Girls Academy</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>44021</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Okeechobee Sex Offender 
+Facility</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>44021</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Okeechobee JOCC Max Risk</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>44021</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Okeechobee Intensive 
+Halfway House</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>44021</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Oak Grove Academy</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>44021</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walton Academy for 
+Growth and Change
+</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>44021</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Escambia Boys Base</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>44021</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Kissimmee Youth Academy</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>44021</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Lake Academy</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>44021</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Redwood Youth Academy</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>44021</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Okaloosa Youth Academy</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>44021</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Hillsborough Girls Academy</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>44021</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Duval Academy</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>44021</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Pompano Youth 
+Treatment Center</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>44021</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cypress Creek 
+Treatment Center</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>44021</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Cypress Creek JOCC Max Risk</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>44021</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Marion Youth Academy</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>44021</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Orange Youth Academy</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>44021</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Midland</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Muscogee, Harris</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>44022</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://djj.georgia.gov/news-cloned/2020-06-08/covid-19-case-update</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Augusta</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Richmond</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Augusta Regional Youth 
 Detention Center</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>44022</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://djj.georgia.gov/news-cloned/2020-06-08/covid-19-case-update</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA4</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Rome</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Floyd</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Bob Richards Regional
-Youth Detention Center</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>perma.cc/8FWK-TXA5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Cadwell</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Laurens</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Cadwell Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>44022</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://djj.georgia.gov/news-cloned/2020-06-08/covid-19-case-update</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA6</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Claxton</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Evans</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Claxton Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>44022</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>https://djj.georgia.gov/news-cloned/2020-06-08/covid-19-case-update</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA7</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Cordele</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Crisp</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Crisp Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>10</v>
       </c>
-      <c r="L20" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="L65">
+        <v>44022</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA8</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Decatur</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DeKalb</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>DeKalb Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>1</v>
       </c>
-      <c r="L21" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="L66">
+        <v>44022</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA9</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Dalton</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Whitfield</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Elbert Shaw Regional
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>44022</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA10</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Gainesville</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Hall</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Gainesville Regional 
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F23">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F68">
         <v>10</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="L23" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>44022</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA11</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Thomasville</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Loftiss Regional
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M24" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>44022</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA12</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Macon</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Bibb</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Macon Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M25" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>44022</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA13</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Marietta</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Cobb</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Marietta Regional 
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F26">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F71">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="G71">
         <v>10</v>
       </c>
-      <c r="L26" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M26" t="inlineStr">
+      <c r="L71">
+        <v>44022</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA14</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Hampton</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Lovejoy</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Martha Glaze Regional
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>44022</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA15</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>DeKalb</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Metro Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F28">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F73">
         <v>10</v>
       </c>
-      <c r="G28">
+      <c r="G73">
         <v>9</v>
       </c>
-      <c r="L28" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M28" t="inlineStr">
+      <c r="L73">
+        <v>44022</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA16</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Conyers</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Rockdale</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Rockdale Regional
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F29">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F74">
         <v>12</v>
       </c>
-      <c r="G29">
-        <v>9</v>
-      </c>
-      <c r="L29" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="L74">
+        <v>44022</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA17</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Savannah</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Chatham</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Savannah Regional
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>44022</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA18</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Dawson</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Terrell</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Terrell Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="L31" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="L76">
+        <v>44022</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA19</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Waycross</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Ware</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Waycross Regional
 Youth Detention Center</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M32" t="inlineStr">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>44022</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA20</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Wilkes</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Wilkes Regional Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M33" t="inlineStr">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>44022</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA21</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>DeKalb</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Atlanta Youth Detention 
 Center</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F34">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F79">
         <v>6</v>
       </c>
-      <c r="G34">
+      <c r="G79">
         <v>4</v>
       </c>
-      <c r="L34" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M34" t="inlineStr">
+      <c r="L79">
+        <v>44022</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA22</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Augusta</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Richmond</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Augusta Youth 
 Detention Center</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M35" t="inlineStr">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>44022</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA23</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Eastman</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Dodge</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Eastman Youth 
 Detention Center</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="L36" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>44022</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA24</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Maine</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Long Creek Youth Development Center</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L37" s="2">
-        <v>44011</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://mainebeacon.com/advocates-renew-call-to-empty-long-creek-after-16-year-old-contracts-covid/</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Macon</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Bibb</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Macon Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="L38" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M38" t="inlineStr">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>44022</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N82" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA26</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Milledgeville</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Baldwin</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Milledgeville Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M39" t="inlineStr">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>44022</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N83" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA27</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Midland</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Harris</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Muscogee Youth
 Detention Center</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M40" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>44022</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>perma.cc/8FWK-TXA28</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Americus</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Sumter</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Sumter Youth Detention
 Center</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>44022</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>perma.cc/8FWK-TXA29</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cook</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Suspended, Adapted</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Educational Packets, Virtual</t>
+        </is>
+      </c>
+      <c r="L86">
         <v>44020</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>https://djj.georgia.gov/news-cloned/2020-07-08/covid-19-case-update</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>perma.cc/8FWK-TXA29</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>https://www2.illinois.gov/idjj/Pages/COVID19.aspx</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>https://perma.cc/7L82-63RH</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Cook</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>8</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Suspended, Adapted</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Educational Packets, Virtual</t>
-        </is>
-      </c>
-      <c r="L42" s="2">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Harrisburg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="L87">
         <v>44020</v>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>https://www2.illinois.gov/idjj/Pages/COVID19.aspx</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>https://perma.cc/7L82-63RH</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Harrisburg</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Saline</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Pere Marquette</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jersey</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="L88">
         <v>44020</v>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>https://www2.illinois.gov/idjj/Pages/COVID19.aspx</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>https://perma.cc/7L82-63RH</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Pere Marquette</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Jersey</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>St. Charles</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DuPage and Kane</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+      <c r="L89">
         <v>44020</v>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>https://www2.illinois.gov/idjj/Pages/COVID19.aspx</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N89" t="inlineStr">
         <is>
           <t>https://perma.cc/7L82-63RH</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>St. Charles</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DuPage and Kane</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>11</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Warrenville</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DuPage</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="L90">
         <v>44020</v>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>https://www2.illinois.gov/idjj/Pages/COVID19.aspx</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N90" t="inlineStr">
         <is>
           <t>https://perma.cc/7L82-63RH</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Illinois</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Warrenville</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>DuPage</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="L46" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>https://www2.illinois.gov/idjj/Pages/COVID19.aspx</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>https://perma.cc/7L82-63RH</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Louisiana</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Avoyelles Parish</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Acadiana Center 
 for Youth</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F47">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F91">
         <v>1</v>
       </c>
-      <c r="G47">
+      <c r="G91">
         <v>4</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L47" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M47" t="inlineStr">
+      <c r="L91">
+        <v>44021</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>https://ojj.la.gov/ojj-covid-19-information/</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>https://perma.cc/DGZ2-XZDK</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Their website is updated daily at 11:00am</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Louisiana</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Jefferson Parish</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Bridge City Center for 
 Youth</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F48">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F92">
         <v>10</v>
       </c>
-      <c r="G48">
+      <c r="G92">
         <v>21</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L48" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M48" t="inlineStr">
+      <c r="L92">
+        <v>44021</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>https://ojj.la.gov/ojj-covid-19-information/</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N92" t="inlineStr">
         <is>
           <t>https://perma.cc/DGZ2-XZDK</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>Their website is updated daily at 11:00am</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Louisiana</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Ouachita Parish</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Swanson Center for 
 Youth in Monroe</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F49">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F93">
         <v>6</v>
       </c>
-      <c r="G49">
+      <c r="G93">
         <v>18</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L49" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M49" t="inlineStr">
+      <c r="L93">
+        <v>79</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>https://ojj.la.gov/ojj-covid-19-information/</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N93" t="inlineStr">
         <is>
           <t>https://perma.cc/DGZ2-XZDK</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Their website is updated daily at 11:00am</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Louisiana</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Caldwell Parish</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Swanson Center for 
 Youth in Columbia</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F50">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F94">
         <v>12</v>
       </c>
-      <c r="G50">
+      <c r="G94">
         <v>11</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L50" s="2">
-        <v>44020</v>
-      </c>
-      <c r="M50" t="inlineStr">
+      <c r="L94">
+        <v>44021</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>https://ojj.la.gov/ojj-covid-19-information/</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N94" t="inlineStr">
         <is>
           <t>https://perma.cc/DGZ2-XZDK</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Their website is updated daily at 11:00am</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Long Creek Youth Development Center</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L95">
+        <v>44011</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>https://mainebeacon.com/advocates-renew-call-to-empty-long-creek-after-16-year-old-contracts-covid/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Baltimore City 
 Juvenile Justice Center</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F51">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F96">
         <v>2</v>
       </c>
-      <c r="G51">
+      <c r="G96">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="L51" s="2">
+      <c r="L96">
         <v>43943</v>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>https://www.nytimes.com/2020/04/14/us/politics/coronavirus-juvenile-detention.html?action=click&amp;module=Top%20Stories&amp;pgtype=Homepage
 https://marylandreporter.com/2020/06/22/state-roundup-most-at-juvenile-detention-centers-still-untested-for-virus/</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N96" t="inlineStr">
         <is>
           <t>perma.cc/SY5R-QXFC;  perma.cc/994A-GKQD</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Missouri</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Hogan St Youth Center</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F52">
-        <v>18</v>
-      </c>
-      <c r="G52">
-        <v>14</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L52" s="2">
-        <v>43999</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>http://www.stlamerican.com/news/local_news/clergy-demand-release-of-youth-from-covid-hot-spot/article_ed3a180c-aced-11ea-a48c-17aab91d135c.html</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>https://perma.cc/77BE-63JK</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Group Home</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Missouri</t>
-        </is>
-      </c>
-      <c r="F53">
-        <v>18</v>
-      </c>
-      <c r="G53">
-        <v>6</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L53" s="2">
-        <v>43992</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>https://www.kmbc.com/article/coronavirus-live-updates-in-kansas-city-missouri-kansas-cass-clay-jackson-johnson-leavenworth-platte-covid-19-wyandotte/32838268</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>https://perma.cc/4M5J-A2Y9</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Youth-Services Home</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Michigan</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Kent</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F54">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F97">
         <v>2</v>
       </c>
-      <c r="G54">
+      <c r="G97">
         <v>3</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L97">
         <v>43928</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>Michigan</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Kalamazoo</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Lakeside Academy</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>(Private) Juvenile
 Detention</t>
         </is>
       </c>
-      <c r="F55">
+      <c r="F98">
         <v>40</v>
       </c>
-      <c r="G55">
+      <c r="G98">
         <v>9</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L98">
         <v>44004</v>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>https://www.metrotimes.com/news-hits/archives/2020/06/22/black-teen-died-after-screaming-i-cant-breathe-while-restrained-at-a-for-profit-youth-center-in-kalamazoo-lawsuit-states</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>https://perma.cc/8TZJ-YJLP</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Statewide</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Hogan St Youth Center</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>18</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L99">
+        <v>43999</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>http://www.stlamerican.com/news/local_news/clergy-demand-release-of-youth-from-covid-hot-spot/article_ed3a180c-aced-11ea-a48c-17aab91d135c.html</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>https://perma.cc/77BE-63JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Group Home</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>18</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L100">
+        <v>43992</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>https://www.kmbc.com/article/coronavirus-live-updates-in-kansas-city-missouri-kansas-cass-clay-jackson-johnson-leavenworth-platte-covid-19-wyandotte/32838268</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>https://perma.cc/4M5J-A2Y9</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Youth-Services Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Youth Treatment and Rehabilitation Center-Kearney</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>6</v>
+      </c>
+      <c r="L101">
+        <v>43984</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>https://www.omaha.com/livewellnebraska/11-employees-and-1-patient-test-positive-for-covid-19-at-lincoln-regional-center/article_b5c166fc-1db9-5ae0-b6c4-180708ec187c.html</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Happened in April</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>New Jersey</t>
         </is>
       </c>
-      <c r="F56">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Systemwide</t>
+        </is>
+      </c>
+      <c r="F102">
         <v>29</v>
       </c>
-      <c r="G56">
+      <c r="G102">
         <v>39</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>Suspended (Video)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>Virtual</t>
         </is>
       </c>
-      <c r="L56" s="2">
+      <c r="L102">
         <v>44019</v>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>https://www.nj.gov/oag/jjc/covid19-facilities.html</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>https://perma.cc/J668-XWMF</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>Numbers may overlap with information from Burlington and Middlesex Counties</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>New Jersey</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Burlington</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Juvenile Prison</t>
-        </is>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>6</v>
-      </c>
-      <c r="L57" s="2">
-        <v>43949</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>https://www.nj.gov/oag/jjc/covid19-facilities.html</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>https://perma.cc/A86C-YVG4</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>New Jersey</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Middlesex</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Juvenile Prison</t>
-        </is>
-      </c>
-      <c r="F58">
-        <v>20</v>
-      </c>
-      <c r="G58">
-        <v>14</v>
-      </c>
-      <c r="L58" s="2">
-        <v>43949</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>https://www.nj.gov/oag/jjc/covid19-facilities.html</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>https://perma.cc/A86C-YVG4</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Albuquerque</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>Youth Diagnostic and 
 Development Center</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L59" s="2">
+      <c r="L103">
         <v>43994</v>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>https://nmpoliticalreport.com/2020/06/12/cyfd-staff-at-youth-detention-center-tests-positive-for-covid-19/</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>https://perma.cc/L9V3-W36H</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Bronx</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F60">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F104">
         <v>3</v>
       </c>
-      <c r="G60">
+      <c r="G104">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="L60" s="2">
+      <c r="L104">
         <v>43931</v>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>https://thecity.nyc/2020/03/juvenile-detention-staff-test-positive-but-no-kids-sprung.html
-https://thecity.nyc/2020/03/teens-sue-to-exit-detention-centers-as-coronavirus-closes-in.htmlhttps://thecity.nyc/2020/04/covid-staff-death-rocks-juvenile-center-for-virus-free-youth.html</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
+ https://thecity.nyc/2020/03/teens-sue-to-exit-detention-centers-as-coronavirus-closes-in.htmlhttps://thecity.nyc/2020/04/covid-staff-death-rocks-juvenile-center-for-virus-free-youth.html</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>https://perma.cc/ZM4Z-JHL5</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Kings</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
         <v>35</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="L61" s="2">
+      <c r="L105">
         <v>43979</v>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>https://jjie.org/2020/05/28/byzantine-system-for-youth-detention-facilities-in-viral-chaos/ for updated staff infections</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N105" t="inlineStr">
         <is>
           <t>https://perma.cc/TM53-CQ38; https://perma.cc/P4YB-462Z; https://perma.cc/F5LC-5MHD</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>first death 4/10</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>North Carolina</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Systemwide</t>
         </is>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
         <v>4</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="L62" s="2">
+      <c r="L106">
         <v>44014</v>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>https://www.charlotteobserver.com/news/article243969897.html</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>https://perma.cc/VB2K-6RTD; https://perma.cc/FY9Z-4AXA</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>includes 4 youth development centers &amp; 7 juvenile detention centers</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Edgecomb Youth Development Center</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Suspended</t>
+        </is>
+      </c>
+      <c r="L107">
+        <v>43992</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>https://jjie.org/2020/06/10/nc-emergency-petition-on-protecting-inmates-from-coronavirus-advances/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>Ohio</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Clark County Juvenile Detention Center</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L108">
+        <v>43980</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>https://www.springfieldnewssun.com/news/local/coronavirus-juvenile-four-employees-test-positive-clark-county-juvenile-detention-center/GH9OmHe5T8l2G7wACqnKFI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>Cuyahoga</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Juvenile Prison</t>
         </is>
       </c>
-      <c r="F63">
+      <c r="F109">
         <v>1</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>Limited</t>
         </is>
       </c>
-      <c r="L63" s="2">
+      <c r="L109">
         <v>43943</v>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>https://www.cleveland.com/coronavirus/2020/04/juvenile-in-ohio-youth-prison-tests-positive-for-coronavirus.html</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="N109" t="inlineStr">
         <is>
           <t>https://perma.cc/VB2K-6RTD; https://perma.cc/FY9Z-4AXA</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>Ohio</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Franklin</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F64">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F110">
         <v>1</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="L110">
         <v>43943</v>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>https://abc6onyourside.com/news/coronavirus/ohio-governor-mike-dewine-first-minor-in-juvenile-correction-facility-has-tested-positive-for-covid-19</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N110" t="inlineStr">
         <is>
           <t>https://perma.cc/A2B3-LGGQ</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>Tennessee</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Bartlett Juvenile Residential Facility</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>45</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L111">
+        <v>43961</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://www.commercialappeal.com/story/news/2020/05/29/coronavirus-memphis-live-updates/5281928002/</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>45 out of 48 residents tested positive,  residential/Mental Health facility, but says "deliquent"</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>Shelby</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
         <v>1</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>Suspended</t>
         </is>
       </c>
-      <c r="L65" s="2">
+      <c r="L112">
         <v>43923</v>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>https://dailymemphian.com/article/12476/juvenile-detention-center-test-officer-positive-for-covid-19-van-turner</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="N112" t="inlineStr">
         <is>
           <t>https://perma.cc/NE4P-EYGP</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Harris</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Harris County
 Juvenile Detention
 Center</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F66">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F113">
         <v>1</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="L113">
         <v>43943</v>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>https://hcjpd.harriscountytx.gov/Pages/default.aspxhttps://www.essence.com/news/juvenile-justice-covid-19-coronavirus/</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N113" t="inlineStr">
         <is>
           <t>https://perma.cc/2944-VHXQ; https://perma.cc/EP7E-N7UB</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Randall</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Youth Center of the High 
 Plains</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>Suspended, Adapted</t>
         </is>
       </c>
-      <c r="L67" s="2">
+      <c r="L114">
         <v>43993</v>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>https://abc7amarillo.com/news/local/youth-center-of-the-high-plains-has-seen-fewer-referrals-during-pandemic</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N114" t="inlineStr">
         <is>
           <t>https://perma.cc/L6NB-5S27</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Edinburg</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Evins Regional
  Juvenile Center</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Juvenile 
  Prison</t>
         </is>
       </c>
-      <c r="F68">
-        <v>13</v>
-      </c>
-      <c r="G68">
-        <v>23</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="F115">
+        <v>17</v>
+      </c>
+      <c r="G115">
+        <v>40</v>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L68" s="2">
+      <c r="L115">
+        <v>44025</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>https://www.tjjd.texas.gov/index.php/covid19</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>https://perma.cc/99GB-5VZ5</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Willis</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Karyn’s House</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Youth Placement</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>4</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L116">
         <v>44010</v>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>https://www.tjjd.texas.gov/index.php/doc-library/send/625-2020/2370-press-release-62820-update%E2%80%9D%20target=</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N116" t="inlineStr">
         <is>
           <t>https://perma.cc/99GB-5VZ5</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Willis</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Karyn’s House</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Youth Placement</t>
-        </is>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L69" s="2">
-        <v>44010</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>https://www.tjjd.texas.gov/index.php/doc-library/send/625-2020/2370-press-release-62820-update%E2%80%9D%20target=</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>https://perma.cc/99GB-5VZ5</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Giddings State 
  School</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Juvenile
  Prison</t>
         </is>
       </c>
-      <c r="F70">
-        <v>23</v>
-      </c>
-      <c r="G70">
-        <v>16</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="F117">
+        <v>72</v>
+      </c>
+      <c r="G117">
+        <v>35</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L70" s="2">
-        <v>44010</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>https://www.tjjd.texas.gov/index.php/doc-library/send/625-2020/2370-press-release-62820-update%E2%80%9D%20target=</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
+      <c r="L117">
+        <v>44025</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>https://www.tjjd.texas.gov/index.php/covid19</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>https://perma.cc/99GB-5VZ5</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Mart</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>McLennan County State
   Juvenile Correctional Facility</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Juvenile Prison</t>
         </is>
       </c>
-      <c r="F71">
+      <c r="F118">
         <v>2</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L71" s="2">
-        <v>44010</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>https://www.tjjd.texas.gov/index.php/doc-library/send/625-2020/2370-press-release-62820-update%E2%80%9D%20target=</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
+      <c r="L118">
+        <v>44025</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>https://www.tjjd.texas.gov/index.php/covid19</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
         <is>
           <t>https://perma.cc/99GB-5VZ5</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Brownwood</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Ron Jackson State 
  Juvenile Correctional 
  Complex</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Juvenile Prison</t>
         </is>
       </c>
-      <c r="F72">
+      <c r="F119">
         <v>2</v>
       </c>
-      <c r="G72">
+      <c r="G119">
+        <v>13</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L119">
+        <v>44025</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>https://www.tjjd.texas.gov/index.php/covid19</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>https://perma.cc/99GB-5VZ5</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Gainesville</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cooke County</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Gainesville State School</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Juvenile Prison</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L120">
+        <v>44025</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>https://www.tjjd.texas.gov/index.php/covid19</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>https://perma.cc/99GB-5VZ5</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Collin County</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Collin County Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121">
         <v>3</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="L72" s="2">
-        <v>44010</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>https://www.tjjd.texas.gov/index.php/doc-library/send/625-2020/2370-press-release-62820-update%E2%80%9D%20target=</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>https://perma.cc/99GB-5VZ5</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Gainesville</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Cooke County</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Gainesville State School</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="L121">
+        <v>44012</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>https://dfw.cbslocal.com/2020/06/30/4-juveniles-3-staff-test-positive-for-covid-19-in-detention-facility/</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>https://perma.cc/KA4P-QD66</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>30</v>
+      </c>
+      <c r="G122">
+        <v>18</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Suspended</t>
+        </is>
+      </c>
+      <c r="L122">
+        <v>44022</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>http://www.djj.virginia.gov/pages/about-djj/covid.htm</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>https://perma.cc/T63B-YNQ5; https://perma.cc/U8F3-7ZK8; https://perma.cc/K89W-9EV5 https://perma.cc/K89W-9EV5</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>http://www.djj.virginia.gov/pages/about-djj/covid.htm</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>https://perma.cc/Z228-4RJR</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Contracted placements for Virginia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>Juvenile Prison</t>
         </is>
       </c>
-      <c r="F73">
-        <v>13</v>
-      </c>
-      <c r="G73">
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>43944</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>https://crosscut.com/2020/04/advocates-seek-early-release-incarcerated-youth-amid-covid-19</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>https://perma.cc/Z228-4RJR</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Educational packets</t>
+        </is>
+      </c>
+      <c r="L125">
+        <v>43917</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>https://www.kalb.com/content/news/Office-of-Juvenile-Justice-reports-almost-a-dozen-positive-COVID-19-cases--569254961.html</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>https://perma.cc/R6C4-KL8L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Dane County Juvenile Detention Center</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Suspended, Adapted</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="L126">
+        <v>44011</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>https://madison.com/ct/news/local/neighborhoods/for-juvenile-detention-pandemic-brings-a-chance-to-rethink/article_3c750ff7-ea2f-5264-be58-5b53e239f113.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Natrona</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>43928</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>https://k2radio.com/youth-at-nc-juvenile-detention-center-positive-for-covid-19/</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>https://perma.cc/42WS-Q4QC</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Juvenile Detention</t>
+        </is>
+      </c>
+      <c r="F128">
         <v>4</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L73" s="2">
-        <v>44010</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>https://www.tjjd.texas.gov/index.php/doc-library/send/625-2020/2370-press-release-62820-update%E2%80%9D%20target=</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>https://perma.cc/99GB-5VZ5</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Collin County</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Collin County Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L74" s="2">
-        <v>44012</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>https://dfw.cbslocal.com/2020/06/30/4-juveniles-3-staff-test-positive-for-covid-19-in-detention-facility/</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>https://perma.cc/KA4P-QD66</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Chesterfield</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F75">
-        <v>26</v>
-      </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="L75" s="2">
-        <v>43948</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>https://www.nbc12.com/2020/04/02/nd-employee-tests-positive-coronavirus-bon-air-juvenile-correctional-center/https://www.correctionsone.com/juvenile-offenders/articles/25-kids-test-positive-for-covid-19-at-va-juvenile-detention-center-B6TMPCYHSQoPJvUn/https://www.usatoday.com/story/news/politics/2020/04/27/coronavirus-juveniles-risk-covid-19-spreads-facilities/3000637001/</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>https://perma.cc/T63B-YNQ5; https://perma.cc/U8F3-7ZK8; https://perma.cc/K89W-9EV5 https://perma.cc/K89W-9EV5</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Lewis</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Juvenile Prison</t>
-        </is>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="L76" s="2">
-        <v>43944</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>https://crosscut.com/2020/04/advocates-seek-early-release-incarcerated-youth-amid-covid-19</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>https://perma.cc/Z228-4RJR</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Wisconsin</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Milwaukee</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Educational packets</t>
-        </is>
-      </c>
-      <c r="L77" s="2">
-        <v>43917</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>https://www.kalb.com/content/news/Office-of-Juvenile-Justice-reports-almost-a-dozen-positive-COVID-19-cases--569254961.html</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>https://perma.cc/R6C4-KL8L</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Wyoming</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Natrona</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2">
-        <v>43928</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>https://k2radio.com/youth-at-nc-juvenile-detention-center-positive-for-covid-19/</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>https://perma.cc/42WS-Q4QC</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>District of Columbia</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Juvenile Detention</t>
-        </is>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79">
+      <c r="G128">
         <v>5</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L128">
         <v>43937</v>
       </c>
     </row>
@@ -4210,13 +5772,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA3AFA0-0E4B-46FB-AB73-6D5D1BE53C6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CA2163-9088-40F2-8485-A4E70FADE34A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{301B38F2-98F5-43BE-9FA3-874D7BCACC21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4EC2FF-2234-4F90-9B91-58DB3258960D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88E9A3A6-C465-481F-8A67-4DAFE08DC841}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56971251-DC47-4E19-BCCE-955BDAEBEEA1}"/>
 </file>
--- a/Youth Facility Counts/COVID-19_Youth_Correctional_Facilities.xlsx
+++ b/Youth Facility Counts/COVID-19_Youth_Correctional_Facilities.xlsx
@@ -475,6 +475,11 @@
           <t>https://dys.alabama.gov/wp-content/uploads/2020/04/DYS-COVID-19-Update-4-20-20-002.pdf</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://perma.cc/39U4-H8MZ</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +573,11 @@
           <t>https://patch.com/arizona/across-az/covid-19-outbreaks-arizona-child-detention-centers-worry-advocates</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://perma.cc/ZSY2-LY8S</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,6 +604,11 @@
           <t>https://patch.com/arizona/across-az/covid-19-outbreaks-arizona-child-detention-centers-worry-advocates</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://perma.cc/BK4U-AYQC</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +659,11 @@
         <is>
           <t>Chief Probation Officer 
 Wendy Still</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://perma.cc/EVS7-6PMZ</t>
         </is>
       </c>
     </row>
@@ -1024,6 +1044,11 @@
           <t>https://www.courant.com/coronavirus/hc-news-coronavirus-doc-mass-testing-numbers-20200629-fdgou7ywpneknewyl32d4e3bxe-story.html</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1kWoKLSAWbZ56A47WTCtMsgmBYv2sY-Vd/view?usp=sharing</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1139,6 +1164,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://perma.cc/6ASC-Z7R4</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1171,6 +1201,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://perma.cc/FV9B-MD59</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1203,6 +1238,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://perma.cc/4GAG-YN7C</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1235,6 +1275,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://perma.cc/5FH2-HVSM</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1267,6 +1312,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://perma.cc/3UX8-G4UZ</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1299,6 +1349,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://perma.cc/EU2B-YQPS</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1331,6 +1386,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://perma.cc/3RCR-EFUW</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1363,6 +1423,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://perma.cc/EY7X-F6KE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1395,6 +1460,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://perma.cc/D6EM-6X4U</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1427,6 +1497,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://perma.cc/7ADK-HNX4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1459,6 +1534,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://perma.cc/9JAL-A9BL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1491,6 +1571,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://perma.cc/Z4J2-A2QQ</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1523,6 +1608,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://perma.cc/LJ2G-X7KH</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1555,6 +1645,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://perma.cc/W3FF-CLWP</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1586,6 +1681,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://perma.cc/W9TZ-ATD7</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1617,6 +1717,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://perma.cc/8C2C-WX88</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1648,6 +1753,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://perma.cc/BRN6-UTS6</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1679,6 +1789,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://perma.cc/9CG3-MFRY</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1708,6 +1823,11 @@
       <c r="M37" t="inlineStr">
         <is>
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://perma.cc/GF39-VK5N</t>
         </is>
       </c>
     </row>
@@ -1743,6 +1863,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://perma.cc/2PSX-27WT</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1774,6 +1899,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://perma.cc/PGN2-ZLL7</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1806,6 +1936,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://perma.cc/P56C-BBTD</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1838,6 +1973,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://perma.cc/SUG8-Q3DY</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1870,6 +2010,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://perma.cc/9QNZ-V3Q6</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1901,6 +2046,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://perma.cc/5YEM-EHD8</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1933,6 +2083,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://perma.cc/CR4L-UR3Q</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1964,6 +2119,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://perma.cc/6TWB-3RVY</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1996,6 +2156,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://perma.cc/U3SN-NARK</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2025,6 +2190,11 @@
       <c r="M47" t="inlineStr">
         <is>
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://perma.cc/CB3M-PXS8</t>
         </is>
       </c>
     </row>
@@ -2060,6 +2230,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://perma.cc/HP9D-FLGB</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2091,6 +2266,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://perma.cc/UJG2-LHVM</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2122,6 +2302,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://perma.cc/FL8L-LD3B</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2153,6 +2338,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://perma.cc/3TPR-85ZH</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2184,6 +2374,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://perma.cc/45SZ-DQBY</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2215,6 +2410,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://perma.cc/L5GU-45FP</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2246,6 +2446,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://perma.cc/UG52-PSK5</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2277,6 +2482,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://perma.cc/H33X-TM6M</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2309,6 +2519,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://perma.cc/4GM3-UGC8</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2341,6 +2556,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://perma.cc/D5SE-FXPE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2372,6 +2592,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://perma.cc/3MY5-L9N9</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2403,6 +2628,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://perma.cc/PN25-9U8Z</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2434,6 +2664,11 @@
           <t>http://www.djj.state.fl.us/news/press-releases/press-release-detail/2020/07/09/DJJ-UPDATES-COVID19</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://perma.cc/EK7H-3THU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2470,6 +2705,11 @@
           <t>https://djj.georgia.gov/news-cloned/2020-06-08/covid-19-case-update</t>
         </is>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://perma.cc/YHY3-Z773</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4619,6 +4859,11 @@
           <t>https://jjie.org/2020/06/10/nc-emergency-petition-on-protecting-inmates-from-coronavirus-advances/</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>https://perma.cc/XH8V-GSGL</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4663,6 +4908,11 @@
       <c r="M108" t="inlineStr">
         <is>
           <t>https://www.springfieldnewssun.com/news/local/coronavirus-juvenile-four-employees-test-positive-clark-county-juvenile-detention-center/GH9OmHe5T8l2G7wACqnKFI/</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>https://perma.cc/FHK2-9RPX</t>
         </is>
       </c>
     </row>
@@ -5482,6 +5732,11 @@
           <t>https://madison.com/ct/news/local/neighborhoods/for-juvenile-detention-pandemic-brings-a-chance-to-rethink/article_3c750ff7-ea2f-5264-be58-5b53e239f113.html</t>
         </is>
       </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>https://perma.cc/S9MX-LLCF</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5543,242 +5798,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051E0680B92C32A4BA570E67EC69CADAB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b543824e0d0efda384fe7e90684491c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" xmlns:ns3="5adaec23-4d3a-444a-8df2-cdc77892727c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e549fe9afa7e302c856fa33d7078cb81" ns2:_="" ns3:_="">
-    <xsd:import namespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2"/>
-    <xsd:import namespace="5adaec23-4d3a-444a-8df2-cdc77892727c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5adaec23-4d3a-444a-8df2-cdc77892727c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CA2163-9088-40F2-8485-A4E70FADE34A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4EC2FF-2234-4F90-9B91-58DB3258960D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56971251-DC47-4E19-BCCE-955BDAEBEEA1}"/>
 </file>